--- a/rp/Excel/ColorValue_预设.xlsx
+++ b/rp/Excel/ColorValue_预设.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="9015" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>TopColor</t>
   </si>
   <si>
-    <t>PantsColor</t>
+    <t>BottomColor</t>
   </si>
   <si>
     <t>ShoeColor</t>
@@ -68,13 +68,13 @@
     <t>EyeShadow</t>
   </si>
   <si>
-    <t>PowderBlusher</t>
-  </si>
-  <si>
-    <t>Lipstick</t>
-  </si>
-  <si>
-    <t>Pupil</t>
+    <t>BlushColor</t>
+  </si>
+  <si>
+    <t>LipstickColor</t>
+  </si>
+  <si>
+    <t>PupilStyleColor</t>
   </si>
   <si>
     <t>id</t>
@@ -2887,7 +2887,7 @@
   <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.075" defaultRowHeight="16.5"/>
